--- a/biology/Botanique/Polyphlebium_exsectum/Polyphlebium_exsectum.xlsx
+++ b/biology/Botanique/Polyphlebium_exsectum/Polyphlebium_exsectum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polyphlebium exsectum est une fougère de la famille des Hyménophyllacées.
 </t>
@@ -511,12 +523,14 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1837, Gustav Kunze décrit une première fois cette espèce, à partir de deux échantillons, l'un en provenance du Chili collecté par Hugh Cuming, l'autre de l'archipel Juan Fernández, sous le nom de Trichomanes exsectum[1].
-En 1938, Edwin Bingham Copeland place dans le genre Vandenboschia : Vandenboschia exsecta (Kunze) Copel.[2].
-Èn 1974, Conrad Vernon Morton la replace dans le genre Trichomanes et en fait une espèce représentative de la section Lacosteopsis du sous-genre Trichomanes[3].
-En 2006, Atsushi Ebihara et Jean-Yves Dubuisson transfèrent Trichomanes exsectum dans le genre Polyphlebium comme espèce représentative de ce genre[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1837, Gustav Kunze décrit une première fois cette espèce, à partir de deux échantillons, l'un en provenance du Chili collecté par Hugh Cuming, l'autre de l'archipel Juan Fernández, sous le nom de Trichomanes exsectum.
+En 1938, Edwin Bingham Copeland place dans le genre Vandenboschia : Vandenboschia exsecta (Kunze) Copel..
+Èn 1974, Conrad Vernon Morton la replace dans le genre Trichomanes et en fait une espèce représentative de la section Lacosteopsis du sous-genre Trichomanes.
+En 2006, Atsushi Ebihara et Jean-Yves Dubuisson transfèrent Trichomanes exsectum dans le genre Polyphlebium comme espèce représentative de ce genre.
 Il existe donc seulement deux synonymes :
 Trichomanes exsectum Kunze,
 Vandenboschia exsecta (Kunze) Copel.</t>
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cette espèce dispose des caractéristiques générales du genre :
 le rhizome, long et rampant, est d'environ 0,1 mm de diamètre, il porte d'abondants et denses poils brun-rougeâtre
@@ -581,7 +597,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente uniquement en Amérique du Sud tempérée : sud du Chili et archipel Juan Fernández.
 Elle est tant épiphyte de troncs d'arbre que terrestre, des milieux humides et ombragés.
